--- a/app/public/filter-pseodocode.xlsx
+++ b/app/public/filter-pseodocode.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
-  <si>
-    <t>per high school</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>names that were used by</t>
   </si>
@@ -36,9 +33,6 @@
   </si>
   <si>
     <t>names that were</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>filter by gender:</t>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>in the last 10 years</t>
+  </si>
+  <si>
+    <t>people in total in year range { } - { }</t>
+  </si>
+  <si>
+    <t>per high school in year range { } - { }</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,116 +470,112 @@
     <col min="3" max="3" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
